--- a/biology/Zoologie/Goronyosaurus/Goronyosaurus.xlsx
+++ b/biology/Zoologie/Goronyosaurus/Goronyosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Goronyosaurus nigeriensis
-Goronyosaurus est un genre éteint de Mosasauridae ayant vécu au Maastrichtien (Crétacé supérieur), il y a 70,6 à 66 millions d'années. Il a été découvert dans l'État de Sokoto dans le Nord-Ouest du Nigeria[1]. Il n'est représenté que par une seule espèce, Goronyosaurus nigeriensis.
+Goronyosaurus est un genre éteint de Mosasauridae ayant vécu au Maastrichtien (Crétacé supérieur), il y a 70,6 à 66 millions d'années. Il a été découvert dans l'État de Sokoto dans le Nord-Ouest du Nigeria. Il n'est représenté que par une seule espèce, Goronyosaurus nigeriensis.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Goronyosaurus nigeriensis a été initialement décrite en 1930 par William Elgin Swinton sous le protonyme de Mosasaurus nigeriensis[2].
-En 1972 Augusto Azzaroli (d) et son équipe l'ont rattaché au genre Goronyosaurus créé à cet effet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Goronyosaurus nigeriensis a été initialement décrite en 1930 par William Elgin Swinton sous le protonyme de Mosasaurus nigeriensis.
+En 1972 Augusto Azzaroli (d) et son équipe l'ont rattaché au genre Goronyosaurus créé à cet effet.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Goronyosaurus nigeriensis mesurait 6 à 8 mètres de long et pesait 2,5 à 3 tonnes.
 </t>
